--- a/src/main/webapp/WEB-INF/template/MAU_BAO_GIA.xlsx
+++ b/src/main/webapp/WEB-INF/template/MAU_BAO_GIA.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\DU_AN\phamarcy\src\main\webapp\WEB-INF\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KHACH" sheetId="2" r:id="rId1"/>
     <sheet name="KHACH_1" sheetId="5" r:id="rId2"/>
     <sheet name="CTR" sheetId="4" r:id="rId3"/>
+    <sheet name="DAI_LY" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">CTR!$A$1:$H$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">DAI_LY!$A$1:$H$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">KHACH!$A$1:$H$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">KHACH_1!$A$1:$I$14</definedName>
   </definedNames>
@@ -21,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -221,11 +228,20 @@
     <t>THÀNH TIỀN
 (Chưa VAT)</t>
   </si>
+  <si>
+    <t>CÔNG TY TNHH MTV THIẾT BỊ NỘI THẤT C.A.C</t>
+  </si>
+  <si>
+    <t>BP BÁN HÀNG ĐẠI LÝ</t>
+  </si>
+  <si>
+    <t>Rất mong nhận được sự ủng hộ của quý Đại lý. Chúng tôi xin chân thành cảm ơn.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -452,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -662,6 +678,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -695,23 +725,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2793,6 +2823,671 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 212" descr="Kết quả hình ảnh cho TẢI HÌNH ẢNH BÀN CẦU TOTO MS885DT8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7229475" y="3971925"/>
+          <a:ext cx="304800" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="jlZa81j1ygxHXM:" descr="Kết quả hình ảnh cho TẢI HÌNH ẢNH LAVABO LT951C"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7229475" y="3971925"/>
+          <a:ext cx="304800" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="jlZa81j1ygxHXM:" descr="Kết quả hình ảnh cho TẢI HÌNH ẢNH LAVABO LT951C"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7229475" y="3971925"/>
+          <a:ext cx="304800" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="jlZa81j1ygxHXM:" descr="Kết quả hình ảnh cho TẢI HÌNH ẢNH LAVABO LT951C"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7229475" y="3971925"/>
+          <a:ext cx="304800" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="jlZa81j1ygxHXM:" descr="Kết quả hình ảnh cho TẢI HÌNH ẢNH LAVABO LT951C"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7229475" y="3971925"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="jlZa81j1ygxHXM:" descr="Kết quả hình ảnh cho TẢI HÌNH ẢNH LAVABO LT951C"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7229475" y="3971925"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 212" descr="Kết quả hình ảnh cho TẢI HÌNH ẢNH BÀN CẦU TOTO MS885DT8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7229475" y="3971925"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="jlZa81j1ygxHXM:" descr="Kết quả hình ảnh cho TẢI HÌNH ẢNH LAVABO LT951C"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7229475" y="3971925"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="jlZa81j1ygxHXM:" descr="Kết quả hình ảnh cho TẢI HÌNH ẢNH LAVABO LT951C"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7229475" y="3971925"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="jlZa81j1ygxHXM:" descr="Kết quả hình ảnh cho TẢI HÌNH ẢNH LAVABO LT951C"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7229475" y="3971925"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="jlZa81j1ygxHXM:" descr="Kết quả hình ảnh cho TẢI HÌNH ẢNH LAVABO LT951C"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7229475" y="3971925"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="jlZa81j1ygxHXM:" descr="Kết quả hình ảnh cho TẢI HÌNH ẢNH LAVABO LT951C"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7229475" y="3971925"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2836,7 +3531,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2871,7 +3566,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3048,7 +3743,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3091,52 +3786,52 @@
       <c r="H3" s="66"/>
     </row>
     <row r="4" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="83"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
     </row>
     <row r="8" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -3190,14 +3885,14 @@
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="91"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="97"/>
       <c r="H11" s="85"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3378,10 +4073,10 @@
       <c r="D1" s="9"/>
       <c r="E1" s="46"/>
       <c r="F1" s="30"/>
-      <c r="G1" s="96">
+      <c r="G1" s="102">
         <v>1</v>
       </c>
-      <c r="H1" s="96"/>
+      <c r="H1" s="102"/>
       <c r="I1" s="77">
         <v>1</v>
       </c>
@@ -3393,10 +4088,10 @@
       <c r="D2" s="9"/>
       <c r="E2" s="46"/>
       <c r="F2" s="30"/>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="97"/>
+      <c r="H2" s="103"/>
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3406,64 +4101,64 @@
       <c r="D3" s="9"/>
       <c r="E3" s="46"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="97" t="s">
+      <c r="G3" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="103"/>
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="94" t="s">
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="94"/>
+      <c r="H7" s="100"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3531,12 +4226,12 @@
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="36"/>
@@ -3677,8 +4372,8 @@
   </sheetPr>
   <dimension ref="A5:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3708,64 +4403,64 @@
       <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
     </row>
     <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
       <c r="H11" s="83"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="40"/>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
     </row>
     <row r="13" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
     </row>
     <row r="14" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
@@ -3828,15 +4523,15 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
       <c r="H18" s="86"/>
     </row>
     <row r="19" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3962,9 +4657,9 @@
       <c r="A31"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
       <c r="G31" s="29"/>
       <c r="H31" s="39"/>
     </row>
@@ -3995,4 +4690,345 @@
   <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="31" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="89" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="92"/>
+    </row>
+    <row r="2" spans="1:8" s="89" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="90"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="92"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H5" s="66"/>
+    </row>
+    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="13"/>
+      <c r="B8" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="83"/>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="43"/>
+      <c r="B9" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="45"/>
+      <c r="B10" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="45"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="82"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="45"/>
+      <c r="B12" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="82"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="86"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="60"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="70"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="70"/>
+    </row>
+    <row r="19" spans="1:8" s="35" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="70"/>
+    </row>
+    <row r="20" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="39"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="39"/>
+    </row>
+    <row r="27" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="39"/>
+    </row>
+    <row r="28" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="39"/>
+    </row>
+    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="25"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+    </row>
+    <row r="30" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="5:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="5:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:G15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="78" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/src/main/webapp/WEB-INF/template/MAU_BAO_GIA.xlsx
+++ b/src/main/webapp/WEB-INF/template/MAU_BAO_GIA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="KHACH" sheetId="2" r:id="rId1"/>
@@ -20,15 +20,15 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">CTR!$A$1:$H$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">DAI_LY!$A$1:$H$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">KHACH!$A$1:$H$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">KHACH_1!$A$1:$I$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">KHACH!$A$1:$I$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">KHACH_1!$A$1:$J$14</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -221,10 +221,6 @@
     <t>Chúng tôi trân trọng gởi đến quý khách hàng báo giá  như sau :</t>
   </si>
   <si>
-    <t>GIÁ BÁN
-(Chưa VAT)</t>
-  </si>
-  <si>
     <t>THÀNH TIỀN
 (Chưa VAT)</t>
   </si>
@@ -236,6 +232,14 @@
   </si>
   <si>
     <t>Rất mong nhận được sự ủng hộ của quý Đại lý. Chúng tôi xin chân thành cảm ơn.</t>
+  </si>
+  <si>
+    <t>GIÁ BÁN LẼ</t>
+  </si>
+  <si>
+    <t>GIÁ BÁN 
+ĐÃ CK
+(Chưa VAT)</t>
   </si>
 </sst>
 </file>
@@ -468,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -692,6 +696,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -725,23 +735,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,13 +774,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>27214</xdr:rowOff>
@@ -819,13 +829,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>112939</xdr:rowOff>
@@ -874,13 +884,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>27214</xdr:rowOff>
@@ -929,13 +939,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>65314</xdr:rowOff>
@@ -984,13 +994,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1039,13 +1049,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1094,13 +1104,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1149,13 +1159,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1204,13 +1214,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1259,13 +1269,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1314,13 +1324,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1369,13 +1379,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1429,13 +1439,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1484,13 +1494,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -1539,13 +1549,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1594,13 +1604,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
@@ -1649,13 +1659,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1704,13 +1714,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1759,13 +1769,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1814,13 +1824,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1869,13 +1879,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1924,13 +1934,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1979,13 +1989,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -2034,13 +2044,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -3754,10 +3764,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3767,73 +3777,78 @@
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="31" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="31" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H1" s="66" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="66" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="66" t="s">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="66" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H3" s="66"/>
-    </row>
-    <row r="4" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="94" t="s">
+    <row r="3" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="66"/>
+    </row>
+    <row r="4" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="95" t="s">
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-    </row>
-    <row r="6" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+    </row>
+    <row r="6" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="83"/>
-    </row>
-    <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="83"/>
+    </row>
+    <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-    </row>
-    <row r="8" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+    </row>
+    <row r="8" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="80" t="s">
         <v>26</v>
@@ -3841,23 +3856,25 @@
       <c r="C8" s="49"/>
       <c r="D8" s="49"/>
       <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="51"/>
-      <c r="H8" s="49"/>
-    </row>
-    <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="51"/>
+      <c r="I8" s="49"/>
+    </row>
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="65" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>1</v>
       </c>
@@ -3874,38 +3891,43 @@
         <v>7</v>
       </c>
       <c r="F10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="15" t="s">
+      <c r="I10" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="85"/>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="85"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="61"/>
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
-      <c r="F12" s="63"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="63"/>
-      <c r="H12" s="64"/>
-    </row>
-    <row r="13" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
+    </row>
+    <row r="13" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="67" t="s">
         <v>30</v>
       </c>
@@ -3913,21 +3935,23 @@
       <c r="C13" s="67"/>
       <c r="D13" s="67"/>
       <c r="E13" s="68"/>
-      <c r="F13" s="69"/>
+      <c r="F13" s="68"/>
       <c r="G13" s="69"/>
-      <c r="H13" s="74"/>
-    </row>
-    <row r="14" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="69"/>
+      <c r="I13" s="74"/>
+    </row>
+    <row r="14" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="67"/>
       <c r="B14" s="67"/>
       <c r="C14" s="67"/>
       <c r="D14" s="67"/>
       <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="69"/>
-      <c r="H14" s="74"/>
-    </row>
-    <row r="15" spans="1:8" s="35" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="69"/>
+      <c r="I14" s="74"/>
+    </row>
+    <row r="15" spans="1:9" s="35" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="71" t="s">
         <v>31</v>
       </c>
@@ -3935,28 +3959,31 @@
       <c r="C15" s="71"/>
       <c r="D15" s="71"/>
       <c r="E15" s="72"/>
-      <c r="F15" s="73"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="73"/>
-      <c r="H15" s="74"/>
-    </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="73"/>
+      <c r="I15" s="74"/>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="29"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="29"/>
-      <c r="H16" s="37"/>
-    </row>
-    <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="29"/>
+      <c r="I16" s="37"/>
+    </row>
+    <row r="17" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="1"/>
       <c r="C17" s="8"/>
       <c r="D17" s="6"/>
       <c r="E17" s="22"/>
-    </row>
-    <row r="18" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="10"/>
       <c r="C18" s="8"/>
@@ -3964,8 +3991,9 @@
         <v>8</v>
       </c>
       <c r="E18" s="23"/>
-    </row>
-    <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -3973,74 +4001,81 @@
         <v>0</v>
       </c>
       <c r="E19" s="22"/>
-      <c r="F19" s="29"/>
+      <c r="F19" s="22"/>
       <c r="G19" s="29"/>
-    </row>
-    <row r="20" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="29"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="29"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" spans="1:9" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="21"/>
-      <c r="F22" s="29"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="29"/>
-      <c r="H22" s="37"/>
-    </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="29"/>
+      <c r="I22" s="37"/>
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="29"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="29"/>
-      <c r="H23" s="37"/>
-    </row>
-    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="29"/>
+      <c r="I23" s="37"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E24" s="25"/>
-      <c r="F24" s="32"/>
+      <c r="F24" s="25"/>
       <c r="G24" s="32"/>
-    </row>
-    <row r="25" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="32"/>
+    </row>
+    <row r="25" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:H6"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="8" max="1048575" man="1"/>
+    <brk id="9" max="1048575" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4048,10 +4083,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4061,107 +4096,115 @@
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="31" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="13" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="46"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="102">
+      <c r="F1" s="46"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="104">
         <v>1</v>
       </c>
-      <c r="H1" s="102"/>
-      <c r="I1" s="77">
+      <c r="I1" s="104"/>
+      <c r="J1" s="77">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="46"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="103" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="105"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="46"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="103" t="s">
+      <c r="F3" s="46"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="94" t="s">
+      <c r="I3" s="105"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="95" t="s">
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="100" t="s">
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="100"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="102"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="45" t="s">
         <v>26</v>
@@ -4169,25 +4212,27 @@
       <c r="C8" s="45"/>
       <c r="D8" s="45"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="27"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="27"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="27"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
       <c r="D9" s="44"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="53" t="s">
         <v>1</v>
       </c>
@@ -4203,18 +4248,19 @@
       <c r="E10" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="76" t="s">
+      <c r="F10" s="55"/>
+      <c r="G10" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="76" t="s">
+      <c r="H10" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="53" t="s">
+      <c r="I10" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="56"/>
       <c r="B11" s="78"/>
       <c r="C11" s="75"/>
@@ -4222,21 +4268,23 @@
       <c r="E11" s="52"/>
       <c r="F11" s="48"/>
       <c r="G11" s="48"/>
-      <c r="H11" s="84"/>
-    </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="48"/>
+      <c r="I11" s="84"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="28"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="93"/>
       <c r="G12" s="28"/>
-      <c r="H12" s="36"/>
-    </row>
-    <row r="13" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="28"/>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -4244,10 +4292,11 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="30"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="1:9" s="35" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="1:10" s="35" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>12</v>
       </c>
@@ -4255,28 +4304,31 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="27"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="27"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="27"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="29"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="29"/>
-      <c r="H15" s="37"/>
-    </row>
-    <row r="16" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="29"/>
+      <c r="I15" s="37"/>
+    </row>
+    <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="42"/>
       <c r="C16" s="8"/>
       <c r="D16" s="6"/>
       <c r="E16" s="22"/>
-    </row>
-    <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="10"/>
       <c r="C17" s="8"/>
@@ -4284,8 +4336,9 @@
         <v>8</v>
       </c>
       <c r="E17" s="23"/>
-    </row>
-    <row r="18" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -4293,70 +4346,77 @@
         <v>0</v>
       </c>
       <c r="E18" s="22"/>
-      <c r="F18" s="29"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="29"/>
-    </row>
-    <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="21"/>
-      <c r="F19" s="29"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="29"/>
-    </row>
-    <row r="20" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="29"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="1:9" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="29"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="29"/>
-      <c r="H21" s="37"/>
-    </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="29"/>
+      <c r="I21" s="37"/>
+    </row>
+    <row r="22" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="21"/>
-      <c r="F22" s="29"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="29"/>
-      <c r="H22" s="37"/>
-    </row>
-    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="29"/>
+      <c r="I22" s="37"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E23" s="25"/>
-      <c r="F23" s="32"/>
+      <c r="F23" s="25"/>
       <c r="G23" s="32"/>
-    </row>
-    <row r="24" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="32"/>
+    </row>
+    <row r="24" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0" top="0" bottom="0" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4403,64 +4463,64 @@
       <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
     </row>
     <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
       <c r="H11" s="83"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="40"/>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
     </row>
     <row r="13" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
     </row>
     <row r="14" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
@@ -4523,15 +4583,15 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="107"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
       <c r="H18" s="86"/>
     </row>
     <row r="19" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4657,9 +4717,9 @@
       <c r="A31"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
       <c r="G31" s="29"/>
       <c r="H31" s="39"/>
     </row>
@@ -4696,7 +4756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -4714,7 +4774,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="89" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="90"/>
       <c r="F1" s="91"/>
@@ -4723,7 +4783,7 @@
     </row>
     <row r="2" spans="1:8" s="89" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="90"/>
       <c r="F2" s="91"/>
@@ -4744,64 +4804,64 @@
       <c r="H5" s="66"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
     </row>
     <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
       <c r="H8" s="83"/>
     </row>
     <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A9" s="43"/>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
     </row>
     <row r="10" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="45"/>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
@@ -4864,15 +4924,15 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
       <c r="H15" s="86"/>
     </row>
     <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -4909,7 +4969,7 @@
     </row>
     <row r="19" spans="1:8" s="35" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="71"/>
       <c r="C19" s="71"/>
@@ -4998,9 +5058,9 @@
       <c r="A28"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
       <c r="G28" s="29"/>
       <c r="H28" s="39"/>
     </row>

--- a/src/main/webapp/WEB-INF/template/MAU_BAO_GIA.xlsx
+++ b/src/main/webapp/WEB-INF/template/MAU_BAO_GIA.xlsx
@@ -472,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -701,6 +701,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3767,7 +3770,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3797,56 +3800,56 @@
       <c r="I3" s="66"/>
     </row>
     <row r="4" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
     </row>
     <row r="6" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="83"/>
       <c r="I6" s="83"/>
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="83"/>
     </row>
     <row r="8" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -3905,15 +3908,15 @@
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
       <c r="F11" s="94"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="100"/>
       <c r="I11" s="85"/>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4067,8 +4070,8 @@
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
@@ -4086,7 +4089,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B7" sqref="B7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4110,10 +4113,10 @@
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
       <c r="G1" s="30"/>
-      <c r="H1" s="104">
+      <c r="H1" s="105">
         <v>1</v>
       </c>
-      <c r="I1" s="104"/>
+      <c r="I1" s="105"/>
       <c r="J1" s="77">
         <v>1</v>
       </c>
@@ -4126,10 +4129,10 @@
       <c r="E2" s="46"/>
       <c r="F2" s="46"/>
       <c r="G2" s="30"/>
-      <c r="H2" s="105" t="s">
+      <c r="H2" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="105"/>
+      <c r="I2" s="106"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4140,68 +4143,68 @@
       <c r="E3" s="46"/>
       <c r="F3" s="46"/>
       <c r="G3" s="30"/>
-      <c r="H3" s="105" t="s">
+      <c r="H3" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="105"/>
+      <c r="I3" s="106"/>
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="102" t="s">
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="102"/>
+      <c r="I7" s="103"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4273,12 +4276,12 @@
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
       <c r="F12" s="93"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -4463,64 +4466,64 @@
       <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
     </row>
     <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
       <c r="H11" s="83"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="40"/>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
     </row>
     <row r="13" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
     </row>
     <row r="14" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
@@ -4583,15 +4586,15 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
       <c r="H18" s="86"/>
     </row>
     <row r="19" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4717,9 +4720,9 @@
       <c r="A31"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
       <c r="G31" s="29"/>
       <c r="H31" s="39"/>
     </row>
@@ -4804,64 +4807,64 @@
       <c r="H5" s="66"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
     </row>
     <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
       <c r="H8" s="83"/>
     </row>
     <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A9" s="43"/>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="45"/>
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
@@ -4924,15 +4927,15 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
       <c r="H15" s="86"/>
     </row>
     <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -5058,9 +5061,9 @@
       <c r="A28"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
       <c r="G28" s="29"/>
       <c r="H28" s="39"/>
     </row>
